--- a/Backup as a Service - Business model - v2.0.xlsx
+++ b/Backup as a Service - Business model - v2.0.xlsx
@@ -810,22 +810,22 @@
                   <c:v>-629.68383173165194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1314.0579611994722</c:v>
+                  <c:v>1314.057961199474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3906.0793006646923</c:v>
+                  <c:v>3906.079300664695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7362.5953094662509</c:v>
+                  <c:v>7362.5953094662545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11971.933487818762</c:v>
+                  <c:v>11971.933487818767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18118.584736740486</c:v>
+                  <c:v>18118.584736740497</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26315.27591321107</c:v>
+                  <c:v>26315.275913211088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,22 +915,22 @@
                   <c:v>1457.6007149565357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1943.7417929311241</c:v>
+                  <c:v>1943.7417929311259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2592.0213394652201</c:v>
+                  <c:v>2592.021339465221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3456.5160088015582</c:v>
+                  <c:v>3456.51600880156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4609.338178352511</c:v>
+                  <c:v>4609.3381783525128</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6146.6512489217257</c:v>
+                  <c:v>6146.6512489217293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8196.6911764705837</c:v>
+                  <c:v>8196.691176470591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,22 +1058,22 @@
                   <c:v>3876.9106255627985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5169.9434097697103</c:v>
+                  <c:v>5169.9434097697122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6894.2303399994435</c:v>
+                  <c:v>6894.2303399994444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9193.6039166598985</c:v>
+                  <c:v>9193.6039166599003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12259.867861686653</c:v>
+                  <c:v>12259.867861686655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16348.796549049492</c:v>
+                  <c:v>16348.796549049495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21801.470588235286</c:v>
+                  <c:v>21801.470588235294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,28 +1542,28 @@
                   <c:v>1470.5882352941176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1961.0609296519467</c:v>
+                  <c:v>1961.0609296519469</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2615.1167794690041</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3487.314273031845</c:v>
+                  <c:v>3487.3142730318459</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4650.4083237770274</c:v>
+                  <c:v>4650.4083237770283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6201.4191680673848</c:v>
+                  <c:v>6201.4191680673857</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8269.7253704463092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11027.856019594936</c:v>
+                  <c:v>11027.856019594938</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14705.882352941173</c:v>
+                  <c:v>14705.882352941175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,31 +1629,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>709.55882352941171</c:v>
+                  <c:v>709.55882352941182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>946.21189855706427</c:v>
+                  <c:v>946.21189855706439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1261.7938460937944</c:v>
+                  <c:v>1261.7938460937946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1682.6291367378653</c:v>
+                  <c:v>1682.6291367378658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2243.8220162224156</c:v>
+                  <c:v>2243.8220162224161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2992.1847485925132</c:v>
+                  <c:v>2992.1847485925136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3990.1424912403436</c:v>
+                  <c:v>3990.142491240345</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5320.9405294545559</c:v>
+                  <c:v>5320.9405294545577</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7095.5882352941153</c:v>
+                  <c:v>7095.5882352941171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,22 +1782,22 @@
                   <c:v>3876.9106255627985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5169.9434097697103</c:v>
+                  <c:v>5169.9434097697122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6894.2303399994435</c:v>
+                  <c:v>6894.2303399994444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9193.6039166598985</c:v>
+                  <c:v>9193.6039166599003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12259.867861686653</c:v>
+                  <c:v>12259.867861686655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16348.796549049492</c:v>
+                  <c:v>16348.796549049495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21801.470588235286</c:v>
+                  <c:v>21801.470588235294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,31 +2134,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>470.58823529411762</c:v>
+                  <c:v>470.58823529411751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>627.53949748862294</c:v>
+                  <c:v>627.53949748862283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>836.83736943008125</c:v>
+                  <c:v>836.83736943008103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1115.9405673701906</c:v>
+                  <c:v>1115.9405673701904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1488.130663608649</c:v>
+                  <c:v>1488.1306636086485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1984.4541337815633</c:v>
+                  <c:v>1984.4541337815629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2646.312118542819</c:v>
+                  <c:v>2646.3121185428186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3528.9139262703793</c:v>
+                  <c:v>3528.9139262703789</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4705.8823529411757</c:v>
+                  <c:v>4705.8823529411738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,31 +2224,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>349.0808823529411</c:v>
+                  <c:v>349.08088235294122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>465.50683817613083</c:v>
+                  <c:v>465.50683817613088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>620.76334552645471</c:v>
+                  <c:v>620.76334552645494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>827.8012255609342</c:v>
+                  <c:v>827.80122556093454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1103.8906758565718</c:v>
+                  <c:v>1103.8906758565722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1472.0618750199953</c:v>
+                  <c:v>1472.0618750199958</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1963.0260598096922</c:v>
+                  <c:v>1963.0260598096929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2617.7373226513473</c:v>
+                  <c:v>2617.7373226513487</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3490.8088235294103</c:v>
+                  <c:v>3490.8088235294117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,7 +2377,7 @@
                   <c:v>1457.600714956536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1943.7417929311248</c:v>
+                  <c:v>1943.741792931125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2592.021339465221</c:v>
@@ -2389,7 +2389,7 @@
                   <c:v>4609.338178352511</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6146.6512489217266</c:v>
+                  <c:v>6146.6512489217275</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>8196.6911764705856</c:v>
@@ -3065,13 +3065,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.18435754189944131</c:v>
+                  <c:v>0.23076923076923075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24581005586592181</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56983240223463683</c:v>
+                  <c:v>0.46153846153846151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,22 +3308,22 @@
                   <c:v>-9647.4703296069074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9848.9006254988526</c:v>
+                  <c:v>-9848.9006254988508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9116.9479456677873</c:v>
+                  <c:v>-9116.9479456677855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7140.309063293711</c:v>
+                  <c:v>-7140.3090632937074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3503.8544535105484</c:v>
+                  <c:v>-3503.854453510543</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2346.0000022143868</c:v>
+                  <c:v>2346.0000022143959</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11147.470590449675</c:v>
+                  <c:v>11147.470590449691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,22 +3413,22 @@
                   <c:v>-901.36878447612435</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-201.43029589194521</c:v>
+                  <c:v>-201.43029589194339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>731.95267983106442</c:v>
+                  <c:v>731.95267983106532</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1976.6388823740763</c:v>
+                  <c:v>1976.6388823740781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3636.4546097831626</c:v>
+                  <c:v>3636.4546097831644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5849.8544557249352</c:v>
+                  <c:v>5849.8544557249388</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8801.4705882352882</c:v>
+                  <c:v>8801.4705882352955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,22 +3556,22 @@
                   <c:v>3876.9106255627985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5169.9434097697103</c:v>
+                  <c:v>5169.9434097697122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6894.2303399994435</c:v>
+                  <c:v>6894.2303399994444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9193.6039166598985</c:v>
+                  <c:v>9193.6039166599003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12259.867861686653</c:v>
+                  <c:v>12259.867861686655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16348.796549049492</c:v>
+                  <c:v>16348.796549049495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21801.470588235286</c:v>
+                  <c:v>21801.470588235294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,22 +4451,22 @@
                   <c:v>3876.9106255627985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5169.9434097697103</c:v>
+                  <c:v>5169.9434097697122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6894.2303399994435</c:v>
+                  <c:v>6894.2303399994444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9193.6039166598985</c:v>
+                  <c:v>9193.6039166599003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12259.867861686653</c:v>
+                  <c:v>12259.867861686655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16348.796549049492</c:v>
+                  <c:v>16348.796549049495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21801.470588235286</c:v>
+                  <c:v>21801.470588235294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8578,8 +8578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8775,11 +8775,11 @@
       </c>
       <c r="C22" s="37">
         <f>INDEX($AD$96:$AD$108,$C$10+1,0)</f>
-        <v>20662.260964297329</v>
+        <v>20662.260964297344</v>
       </c>
       <c r="D22" s="37">
         <f>INDEX($AM$96:$AM$108,$C$10+1,0)</f>
-        <v>7312.5216149143744</v>
+        <v>7312.5216149143889</v>
       </c>
       <c r="E22" t="str">
         <f>IF(C22&gt;=0,"good!","warnning!")</f>
@@ -8796,11 +8796,11 @@
       </c>
       <c r="C23" s="44">
         <f>INDEX($AE$96:$AE$108,$C$10+1,0)</f>
-        <v>0.30327075576430573</v>
+        <v>0.30327075576430595</v>
       </c>
       <c r="D23" s="44">
         <f>INDEX($AN$96:$AN$108,$C$10+1,0)</f>
-        <v>9.9371216546409347E-2</v>
+        <v>9.9371216546409569E-2</v>
       </c>
       <c r="E23" t="str">
         <f>IF(C23&gt;=C15,"good!","warnning!")</f>
@@ -8838,11 +8838,11 @@
       </c>
       <c r="C25" s="37">
         <f>INDEX($H$96:$H$108,$C$10+1,0)</f>
-        <v>21801.470588235286</v>
+        <v>21801.470588235294</v>
       </c>
       <c r="D25" s="37">
         <f>INDEX($H$96:$H$108,$C$10+1,0)</f>
-        <v>21801.470588235286</v>
+        <v>21801.470588235294</v>
       </c>
       <c r="E25" t="str">
         <f>IF(C25&gt;=2*C7,"good!","warnning!")</f>
@@ -8859,11 +8859,11 @@
       </c>
       <c r="C26" s="44">
         <f>INDEX($L$96:$L$108,$C$10+1,0)</f>
-        <v>0.37596964586846543</v>
+        <v>0.37596964586846532</v>
       </c>
       <c r="D26" s="44">
         <f>INDEX($X$96:$X$108,$C$10+1,0)</f>
-        <v>0.40370994940978067</v>
+        <v>0.40370994940978083</v>
       </c>
       <c r="E26" t="str">
         <f>IF(C26&gt;=(1-(1-$C$13)*(1-$C$14)),"good!","warnning!")</f>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="D27" s="37">
         <f>INDEX($AQ$96:$AQ$108,$C$10+1,0)</f>
-        <v>-9848.9006254988526</v>
+        <v>-9848.9006254988508</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
@@ -9011,7 +9011,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.45">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="E38" s="22">
         <f>VLOOKUP(E37,price_list!$F$3:$K$8,6,)</f>
-        <v>4.8000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.45">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="E39" s="39">
         <f>E35*E38+E36</f>
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E41" s="21">
         <f>E39*(1-E40)</f>
-        <v>57.8</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.45">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="E43" s="21">
         <f t="shared" si="1"/>
-        <v>46.24</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.45">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="E45" s="21">
         <f t="shared" si="3"/>
-        <v>21.759999999999998</v>
+        <v>14.079999999999998</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="E47" s="24">
         <f>E46*E41</f>
-        <v>8.67</v>
+        <v>5.6099999999999994</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.45">
@@ -9197,15 +9197,15 @@
       </c>
       <c r="C48" s="54">
         <f>C47/SUM($C$47:$E$47)</f>
-        <v>0.18435754189944131</v>
+        <v>0.23076923076923075</v>
       </c>
       <c r="D48" s="54">
         <f>D47/SUM($C$47:$E$47)</f>
-        <v>0.24581005586592181</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E48" s="54">
         <f>E47/SUM($C$47:$E$47)</f>
-        <v>0.56983240223463683</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="C50" s="27">
         <f>SUMPRODUCT(C46:E46,C43:E43)</f>
-        <v>12.172000000000001</v>
+        <v>9.7240000000000002</v>
       </c>
       <c r="D50" s="15"/>
     </row>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="C51" s="27">
         <f>SUMPRODUCT(C39:E39,C46:E46)</f>
-        <v>17.899999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="19"/>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="C52" s="27">
         <f>SUMPRODUCT(C46:E46,C45:E45)</f>
-        <v>5.7279999999999998</v>
+        <v>4.5759999999999987</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="7"/>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="C53" s="25">
         <f>C52/C51</f>
-        <v>0.32</v>
+        <v>0.3199999999999999</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
@@ -9311,7 +9311,7 @@
         <v>48</v>
       </c>
       <c r="C58" s="21">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D58" s="9">
         <v>0.15</v>
@@ -9471,15 +9471,15 @@
       </c>
       <c r="C66" s="8">
         <f t="shared" si="4"/>
-        <v>10.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D66" s="8">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E66" s="8">
         <f t="shared" si="4"/>
-        <v>30.6</v>
+        <v>19.8</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -9495,15 +9495,15 @@
       </c>
       <c r="C67" s="8">
         <f>SUMPRODUCT(C64:C66,$D$56:$D$58)*C61</f>
-        <v>2.0137499999999999</v>
+        <v>1.6087500000000001</v>
       </c>
       <c r="D67" s="8">
         <f>SUMPRODUCT(D64:D66,$D$56:$D$58)*D61</f>
-        <v>3.8037499999999995</v>
+        <v>3.0387500000000003</v>
       </c>
       <c r="E67" s="8">
         <f>SUMPRODUCT(E64:E66,$D$56:$D$58)*E61</f>
-        <v>2.8192499999999998</v>
+        <v>2.2522500000000001</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="29"/>
@@ -9514,15 +9514,15 @@
       </c>
       <c r="C68" s="8">
         <f>C67*C63</f>
-        <v>0.70481249999999995</v>
+        <v>0.56306250000000002</v>
       </c>
       <c r="D68" s="8">
         <f>D67*D63</f>
-        <v>1.7116874999999998</v>
+        <v>1.3674375000000001</v>
       </c>
       <c r="E68" s="8">
         <f>E67*E63</f>
-        <v>1.8325125</v>
+        <v>1.4639625000000001</v>
       </c>
       <c r="K68" s="16"/>
     </row>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="C70" s="27">
         <f>SUM(C67:E67)</f>
-        <v>8.6367499999999993</v>
+        <v>6.8997500000000009</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="C71" s="27">
         <f>SUM(C68:E68)</f>
-        <v>4.2490124999999992</v>
+        <v>3.3944625000000004</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="C72" s="25">
         <f>C71/C70</f>
-        <v>0.49196891191709841</v>
+        <v>0.49196891191709846</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="E100" s="2">
         <f t="shared" si="8"/>
-        <v>82.155767334866908</v>
+        <v>102.83833813245577</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="9"/>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="G100" s="3">
         <f t="shared" si="10"/>
-        <v>709.55882352941171</v>
+        <v>709.55882352941182</v>
       </c>
       <c r="H100" s="12">
         <f t="shared" si="11"/>
@@ -10664,11 +10664,11 @@
       </c>
       <c r="I100" s="12">
         <f t="shared" si="12"/>
-        <v>470.58823529411762</v>
+        <v>470.58823529411751</v>
       </c>
       <c r="J100" s="12">
         <f t="shared" si="13"/>
-        <v>349.0808823529411</v>
+        <v>349.08088235294122</v>
       </c>
       <c r="K100" s="12">
         <f t="shared" si="23"/>
@@ -10688,15 +10688,15 @@
       </c>
       <c r="O100" s="2">
         <f t="shared" si="25"/>
-        <v>82.155767334866908</v>
+        <v>102.83833813245577</v>
       </c>
       <c r="P100" s="24">
         <f t="shared" si="16"/>
-        <v>8.2155767334866917E-2</v>
+        <v>0.10283833813245578</v>
       </c>
       <c r="Q100" s="24">
         <f t="shared" si="17"/>
-        <v>2.0538941833716729E-2</v>
+        <v>2.5709584533113946E-2</v>
       </c>
       <c r="R100" s="56">
         <f t="shared" si="26"/>
@@ -10814,15 +10814,15 @@
       </c>
       <c r="E101" s="2">
         <f t="shared" si="8"/>
-        <v>109.55647651686854</v>
+        <v>137.13712794768858</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="9"/>
-        <v>1961.0609296519467</v>
+        <v>1961.0609296519469</v>
       </c>
       <c r="G101" s="3">
         <f t="shared" si="10"/>
-        <v>946.21189855706427</v>
+        <v>946.21189855706439</v>
       </c>
       <c r="H101" s="12">
         <f t="shared" si="11"/>
@@ -10830,11 +10830,11 @@
       </c>
       <c r="I101" s="12">
         <f t="shared" si="12"/>
-        <v>627.53949748862294</v>
+        <v>627.53949748862283</v>
       </c>
       <c r="J101" s="12">
         <f t="shared" si="13"/>
-        <v>465.50683817613083</v>
+        <v>465.50683817613088</v>
       </c>
       <c r="K101" s="12">
         <f t="shared" si="23"/>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="M101" s="12">
         <f t="shared" si="14"/>
-        <v>480.70506038093345</v>
+        <v>480.7050603809335</v>
       </c>
       <c r="N101" s="12">
         <f t="shared" si="15"/>
@@ -10854,15 +10854,15 @@
       </c>
       <c r="O101" s="2">
         <f t="shared" si="25"/>
-        <v>27.400709182001634</v>
+        <v>34.298789815232809</v>
       </c>
       <c r="P101" s="24">
         <f t="shared" si="16"/>
-        <v>2.7400709182001635E-2</v>
+        <v>3.4298789815232808E-2</v>
       </c>
       <c r="Q101" s="24">
         <f t="shared" si="17"/>
-        <v>2.7389119129217137E-2</v>
+        <v>3.4284281986922141E-2</v>
       </c>
       <c r="R101" s="56">
         <f t="shared" si="26"/>
@@ -10980,7 +10980,7 @@
       </c>
       <c r="E102" s="2">
         <f t="shared" si="8"/>
-        <v>146.09590946754213</v>
+        <v>182.87529926356672</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="9"/>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="G102" s="3">
         <f t="shared" si="10"/>
-        <v>1261.7938460937944</v>
+        <v>1261.7938460937946</v>
       </c>
       <c r="H102" s="12">
         <f t="shared" si="11"/>
@@ -10996,11 +10996,11 @@
       </c>
       <c r="I102" s="12">
         <f t="shared" si="12"/>
-        <v>836.83736943008125</v>
+        <v>836.83736943008103</v>
       </c>
       <c r="J102" s="12">
         <f t="shared" si="13"/>
-        <v>620.76334552645471</v>
+        <v>620.76334552645494</v>
       </c>
       <c r="K102" s="12">
         <f t="shared" si="23"/>
@@ -11020,15 +11020,15 @@
       </c>
       <c r="O102" s="2">
         <f t="shared" si="25"/>
-        <v>36.539432950673586</v>
+        <v>45.738171315878134</v>
       </c>
       <c r="P102" s="24">
         <f t="shared" si="16"/>
-        <v>3.6539432950673585E-2</v>
+        <v>4.5738171315878137E-2</v>
       </c>
       <c r="Q102" s="24">
         <f t="shared" si="17"/>
-        <v>3.6523977366885535E-2</v>
+        <v>4.5718824815891679E-2</v>
       </c>
       <c r="R102" s="56">
         <f t="shared" si="26"/>
@@ -11146,39 +11146,39 @@
       </c>
       <c r="E103" s="2">
         <f t="shared" si="8"/>
-        <v>194.82202642636008</v>
+        <v>243.86813098124796</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="9"/>
-        <v>3487.314273031845</v>
+        <v>3487.3142730318459</v>
       </c>
       <c r="G103" s="3">
         <f t="shared" si="10"/>
-        <v>1682.6291367378653</v>
+        <v>1682.6291367378658</v>
       </c>
       <c r="H103" s="12">
         <f t="shared" si="11"/>
-        <v>5169.9434097697103</v>
+        <v>5169.9434097697122</v>
       </c>
       <c r="I103" s="12">
         <f t="shared" si="12"/>
-        <v>1115.9405673701906</v>
+        <v>1115.9405673701904</v>
       </c>
       <c r="J103" s="12">
         <f t="shared" si="13"/>
-        <v>827.8012255609342</v>
+        <v>827.80122556093454</v>
       </c>
       <c r="K103" s="12">
         <f t="shared" si="23"/>
-        <v>1943.7417929311248</v>
+        <v>1943.741792931125</v>
       </c>
       <c r="L103" s="6">
         <f t="shared" si="24"/>
-        <v>0.37596964586846543</v>
+        <v>0.37596964586846537</v>
       </c>
       <c r="M103" s="12">
         <f t="shared" si="14"/>
-        <v>854.82791117693114</v>
+        <v>854.82791117693125</v>
       </c>
       <c r="N103" s="12">
         <f t="shared" si="15"/>
@@ -11186,15 +11186,15 @@
       </c>
       <c r="O103" s="2">
         <f t="shared" si="25"/>
-        <v>48.726116958817954</v>
+        <v>60.992831717681241</v>
       </c>
       <c r="P103" s="24">
         <f t="shared" si="16"/>
-        <v>4.8726116958817955E-2</v>
+        <v>6.0992831717681245E-2</v>
       </c>
       <c r="Q103" s="24">
         <f t="shared" si="17"/>
-        <v>4.8705506606590017E-2</v>
+        <v>6.0967032745311983E-2</v>
       </c>
       <c r="R103" s="56">
         <f t="shared" si="26"/>
@@ -11218,20 +11218,20 @@
       </c>
       <c r="W103" s="12">
         <f t="shared" si="19"/>
-        <v>-201.43029589194521</v>
+        <v>-201.43029589194339</v>
       </c>
       <c r="X103" s="6">
         <f t="shared" si="20"/>
-        <v>-3.8961798984356331E-2</v>
+        <v>-3.8961798984355964E-2</v>
       </c>
       <c r="Y103" s="12"/>
       <c r="Z103" s="12">
         <f t="shared" si="21"/>
-        <v>1943.7417929311241</v>
+        <v>1943.7417929311259</v>
       </c>
       <c r="AA103" s="12">
         <f t="shared" si="31"/>
-        <v>1314.0579611994722</v>
+        <v>1314.057961199474</v>
       </c>
       <c r="AB103" t="str">
         <f t="shared" si="32"/>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="AD103" s="3">
         <f>NPV($C$15,Z$97:Z103)+$Z$96</f>
-        <v>805.09045774446236</v>
+        <v>805.09045774446395</v>
       </c>
       <c r="AE103" s="1">
         <f>IFERROR(IRR(Z$96:Z103),"N/A")</f>
@@ -11263,11 +11263,11 @@
       </c>
       <c r="AI103" s="12">
         <f t="shared" si="22"/>
-        <v>-201.43029589194521</v>
+        <v>-201.43029589194339</v>
       </c>
       <c r="AJ103" s="12">
         <f t="shared" si="34"/>
-        <v>-9848.9006254988526</v>
+        <v>-9848.9006254988508</v>
       </c>
       <c r="AK103" t="str">
         <f t="shared" si="35"/>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="AM103" s="3">
         <f>NPV($C$15,AI$97:AI103)+$AI$96</f>
-        <v>-9217.5638115308884</v>
+        <v>-9217.5638115308866</v>
       </c>
       <c r="AN103" s="63" t="str">
         <f>IFERROR(IRR(AI$96:AI103),"N/A")</f>
@@ -11295,7 +11295,7 @@
       </c>
       <c r="AQ103" s="3">
         <f>MIN(AJ$96:AJ103)</f>
-        <v>-9848.9006254988526</v>
+        <v>-9848.9006254988508</v>
       </c>
     </row>
     <row r="104" spans="2:43" x14ac:dyDescent="0.45">
@@ -11312,27 +11312,27 @@
       </c>
       <c r="E104" s="2">
         <f t="shared" si="8"/>
-        <v>259.79934769704067</v>
+        <v>325.20337928510685</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="9"/>
-        <v>4650.4083237770274</v>
+        <v>4650.4083237770283</v>
       </c>
       <c r="G104" s="3">
         <f t="shared" si="10"/>
-        <v>2243.8220162224156</v>
+        <v>2243.8220162224161</v>
       </c>
       <c r="H104" s="12">
         <f t="shared" si="11"/>
-        <v>6894.2303399994435</v>
+        <v>6894.2303399994444</v>
       </c>
       <c r="I104" s="12">
         <f t="shared" si="12"/>
-        <v>1488.130663608649</v>
+        <v>1488.1306636086485</v>
       </c>
       <c r="J104" s="12">
         <f t="shared" si="13"/>
-        <v>1103.8906758565718</v>
+        <v>1103.8906758565722</v>
       </c>
       <c r="K104" s="12">
         <f t="shared" si="23"/>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="L104" s="6">
         <f t="shared" si="24"/>
-        <v>0.37596964586846549</v>
+        <v>0.37596964586846543</v>
       </c>
       <c r="M104" s="12">
         <f t="shared" si="14"/>
@@ -11352,15 +11352,15 @@
       </c>
       <c r="O104" s="2">
         <f t="shared" si="25"/>
-        <v>64.977321270680591</v>
+        <v>81.33524830385889</v>
       </c>
       <c r="P104" s="24">
         <f t="shared" si="16"/>
-        <v>6.4977321270680594E-2</v>
+        <v>8.1335248303858881E-2</v>
       </c>
       <c r="Q104" s="24">
         <f t="shared" si="17"/>
-        <v>6.4949836924260165E-2</v>
+        <v>8.130084482127671E-2</v>
       </c>
       <c r="R104" s="56">
         <f t="shared" si="26"/>
@@ -11384,20 +11384,20 @@
       </c>
       <c r="W104" s="12">
         <f t="shared" si="19"/>
-        <v>731.95267983106442</v>
+        <v>731.95267983106532</v>
       </c>
       <c r="X104" s="6">
         <f t="shared" si="20"/>
-        <v>0.10616887509318748</v>
+        <v>0.10616887509318761</v>
       </c>
       <c r="Y104" s="12"/>
       <c r="Z104" s="12">
         <f t="shared" si="21"/>
-        <v>2592.0213394652201</v>
+        <v>2592.021339465221</v>
       </c>
       <c r="AA104" s="12">
         <f t="shared" si="31"/>
-        <v>3906.0793006646923</v>
+        <v>3906.079300664695</v>
       </c>
       <c r="AB104" t="str">
         <f t="shared" si="32"/>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="AD104" s="3">
         <f>NPV($C$15,Z$97:Z104)+$Z$96</f>
-        <v>2981.1778751558891</v>
+        <v>2981.1778751558913</v>
       </c>
       <c r="AE104" s="1">
         <f>IFERROR(IRR(Z$96:Z104),"N/A")</f>
@@ -11429,11 +11429,11 @@
       </c>
       <c r="AI104" s="12">
         <f t="shared" si="22"/>
-        <v>731.95267983106442</v>
+        <v>731.95267983106532</v>
       </c>
       <c r="AJ104" s="12">
         <f t="shared" si="34"/>
-        <v>-9116.9479456677873</v>
+        <v>-9116.9479456677855</v>
       </c>
       <c r="AK104" t="str">
         <f t="shared" si="35"/>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="AM104" s="3">
         <f>NPV($C$15,AI$97:AI104)+$AI$96</f>
-        <v>-8603.0653919115612</v>
+        <v>-8603.0653919115575</v>
       </c>
       <c r="AN104" s="63" t="str">
         <f>IFERROR(IRR(AI$96:AI104),"N/A")</f>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="AO104" s="63">
         <f>IFERROR(MIRR(AI$96:AI104,$C$15,$C$16),"N/A")</f>
-        <v>-0.27140974777020466</v>
+        <v>-0.27140974777020455</v>
       </c>
       <c r="AP104" s="3">
         <f>MIN(AI$96:AI104)</f>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="AQ104" s="3">
         <f>MIN(AJ$96:AJ104)</f>
-        <v>-9848.9006254988526</v>
+        <v>-9848.9006254988508</v>
       </c>
     </row>
     <row r="105" spans="2:43" x14ac:dyDescent="0.45">
@@ -11478,27 +11478,27 @@
       </c>
       <c r="E105" s="2">
         <f t="shared" si="8"/>
-        <v>346.44799821605505</v>
+        <v>433.66567608862835</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="9"/>
-        <v>6201.4191680673848</v>
+        <v>6201.4191680673857</v>
       </c>
       <c r="G105" s="3">
         <f t="shared" si="10"/>
-        <v>2992.1847485925132</v>
+        <v>2992.1847485925136</v>
       </c>
       <c r="H105" s="12">
         <f t="shared" si="11"/>
-        <v>9193.6039166598985</v>
+        <v>9193.6039166599003</v>
       </c>
       <c r="I105" s="12">
         <f t="shared" si="12"/>
-        <v>1984.4541337815633</v>
+        <v>1984.4541337815629</v>
       </c>
       <c r="J105" s="12">
         <f t="shared" si="13"/>
-        <v>1472.0618750199953</v>
+        <v>1472.0618750199958</v>
       </c>
       <c r="K105" s="12">
         <f t="shared" si="23"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="L105" s="6">
         <f t="shared" si="24"/>
-        <v>0.37596964586846543</v>
+        <v>0.37596964586846532</v>
       </c>
       <c r="M105" s="12">
         <f t="shared" si="14"/>
@@ -11518,15 +11518,15 @@
       </c>
       <c r="O105" s="2">
         <f t="shared" si="25"/>
-        <v>86.648650519014382</v>
+        <v>108.4622968035215</v>
       </c>
       <c r="P105" s="24">
         <f t="shared" si="16"/>
-        <v>8.6648650519014381E-2</v>
+        <v>0.10846229680352149</v>
       </c>
       <c r="Q105" s="24">
         <f t="shared" si="17"/>
-        <v>8.661199955401376E-2</v>
+        <v>0.10841641902215708</v>
       </c>
       <c r="R105" s="56">
         <f t="shared" si="26"/>
@@ -11550,20 +11550,20 @@
       </c>
       <c r="W105" s="12">
         <f t="shared" si="19"/>
-        <v>1976.6388823740763</v>
+        <v>1976.6388823740781</v>
       </c>
       <c r="X105" s="6">
         <f t="shared" si="20"/>
-        <v>0.21500152718045343</v>
+        <v>0.21500152718045359</v>
       </c>
       <c r="Y105" s="12"/>
       <c r="Z105" s="12">
         <f t="shared" si="21"/>
-        <v>3456.5160088015582</v>
+        <v>3456.51600880156</v>
       </c>
       <c r="AA105" s="12">
         <f t="shared" si="31"/>
-        <v>7362.5953094662509</v>
+        <v>7362.5953094662545</v>
       </c>
       <c r="AB105" t="str">
         <f t="shared" si="32"/>
@@ -11575,11 +11575,11 @@
       </c>
       <c r="AD105" s="3">
         <f>NPV($C$15,Z$97:Z105)+$Z$96</f>
-        <v>5820.2802855736682</v>
+        <v>5820.2802855736727</v>
       </c>
       <c r="AE105" s="1">
         <f>IFERROR(IRR(Z$96:Z105),"N/A")</f>
-        <v>0.20218473602451903</v>
+        <v>0.20218473602451925</v>
       </c>
       <c r="AF105" s="1">
         <f>IFERROR(MIRR(Z$96:Z105,$C$15,$C$16),"N/A")</f>
@@ -11595,11 +11595,11 @@
       </c>
       <c r="AI105" s="12">
         <f t="shared" si="22"/>
-        <v>1976.6388823740763</v>
+        <v>1976.6388823740781</v>
       </c>
       <c r="AJ105" s="12">
         <f t="shared" si="34"/>
-        <v>-7140.309063293711</v>
+        <v>-7140.3090632937074</v>
       </c>
       <c r="AK105" t="str">
         <f t="shared" si="35"/>
@@ -11611,15 +11611,15 @@
       </c>
       <c r="AM105" s="3">
         <f>NPV($C$15,AI$97:AI105)+$AI$96</f>
-        <v>-6979.4998706804017</v>
+        <v>-6979.4998706803972</v>
       </c>
       <c r="AN105" s="63">
         <f>IFERROR(IRR(AI$96:AI105),"N/A")</f>
-        <v>-0.21807376112540766</v>
+        <v>-0.21807376112540744</v>
       </c>
       <c r="AO105" s="63">
         <f>IFERROR(MIRR(AI$96:AI105,$C$15,$C$16),"N/A")</f>
-        <v>-0.12709602208634707</v>
+        <v>-0.12709602208634696</v>
       </c>
       <c r="AP105" s="3">
         <f>MIN(AI$96:AI105)</f>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="AQ105" s="3">
         <f>MIN(AJ$96:AJ105)</f>
-        <v>-9848.9006254988526</v>
+        <v>-9848.9006254988508</v>
       </c>
     </row>
     <row r="106" spans="2:43" x14ac:dyDescent="0.45">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="E106" s="2">
         <f t="shared" si="8"/>
-        <v>461.99583075119045</v>
+        <v>578.30247345778389</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="9"/>
@@ -11652,19 +11652,19 @@
       </c>
       <c r="G106" s="3">
         <f t="shared" si="10"/>
-        <v>3990.1424912403436</v>
+        <v>3990.142491240345</v>
       </c>
       <c r="H106" s="12">
         <f t="shared" si="11"/>
-        <v>12259.867861686653</v>
+        <v>12259.867861686655</v>
       </c>
       <c r="I106" s="12">
         <f t="shared" si="12"/>
-        <v>2646.312118542819</v>
+        <v>2646.3121185428186</v>
       </c>
       <c r="J106" s="12">
         <f t="shared" si="13"/>
-        <v>1963.0260598096922</v>
+        <v>1963.0260598096929</v>
       </c>
       <c r="K106" s="12">
         <f t="shared" si="23"/>
@@ -11672,11 +11672,11 @@
       </c>
       <c r="L106" s="6">
         <f t="shared" si="24"/>
-        <v>0.37596964586846543</v>
+        <v>0.37596964586846537</v>
       </c>
       <c r="M106" s="12">
         <f t="shared" si="14"/>
-        <v>2027.1164314306513</v>
+        <v>2027.116431430652</v>
       </c>
       <c r="N106" s="12">
         <f t="shared" si="15"/>
@@ -11684,15 +11684,15 @@
       </c>
       <c r="O106" s="2">
         <f t="shared" si="25"/>
-        <v>115.5478325351354</v>
+        <v>144.63679736915554</v>
       </c>
       <c r="P106" s="24">
         <f t="shared" si="16"/>
-        <v>0.1155478325351354</v>
+        <v>0.14463679736915555</v>
       </c>
       <c r="Q106" s="24">
         <f t="shared" si="17"/>
-        <v>0.11549895768779761</v>
+        <v>0.14457561836444596</v>
       </c>
       <c r="R106" s="56">
         <f t="shared" si="26"/>
@@ -11716,20 +11716,20 @@
       </c>
       <c r="W106" s="12">
         <f t="shared" si="19"/>
-        <v>3636.4546097831626</v>
+        <v>3636.4546097831644</v>
       </c>
       <c r="X106" s="6">
         <f t="shared" si="20"/>
-        <v>0.29661450276698798</v>
+        <v>0.29661450276698809</v>
       </c>
       <c r="Y106" s="12"/>
       <c r="Z106" s="12">
         <f t="shared" si="21"/>
-        <v>4609.338178352511</v>
+        <v>4609.3381783525128</v>
       </c>
       <c r="AA106" s="12">
         <f t="shared" si="31"/>
-        <v>11971.933487818762</v>
+        <v>11971.933487818767</v>
       </c>
       <c r="AB106" t="str">
         <f t="shared" si="32"/>
@@ -11741,11 +11741,11 @@
       </c>
       <c r="AD106" s="3">
         <f>NPV($C$15,Z$97:Z106)+$Z$96</f>
-        <v>9524.4065225740414</v>
+        <v>9524.4065225740469</v>
       </c>
       <c r="AE106" s="1">
         <f>IFERROR(IRR(Z$96:Z106),"N/A")</f>
-        <v>0.2447099538343287</v>
+        <v>0.24470995383432892</v>
       </c>
       <c r="AF106" s="1">
         <f>IFERROR(MIRR(Z$96:Z106,$C$15,$C$16),"N/A")</f>
@@ -11761,11 +11761,11 @@
       </c>
       <c r="AI106" s="12">
         <f t="shared" si="22"/>
-        <v>3636.4546097831626</v>
+        <v>3636.4546097831644</v>
       </c>
       <c r="AJ106" s="12">
         <f t="shared" si="34"/>
-        <v>-3503.8544535105484</v>
+        <v>-3503.854453510543</v>
       </c>
       <c r="AK106" t="str">
         <f t="shared" si="35"/>
@@ -11777,15 +11777,15 @@
       </c>
       <c r="AM106" s="3">
         <f>NPV($C$15,AI$97:AI106)+$AI$96</f>
-        <v>-4057.1959718214935</v>
+        <v>-4057.1959718214875</v>
       </c>
       <c r="AN106" s="63">
         <f>IFERROR(IRR(AI$96:AI106),"N/A")</f>
-        <v>-6.7624504764915216E-2</v>
+        <v>-6.7624504764914883E-2</v>
       </c>
       <c r="AO106" s="63">
         <f>IFERROR(MIRR(AI$96:AI106,$C$15,$C$16),"N/A")</f>
-        <v>-3.6400739952758832E-2</v>
+        <v>-3.6400739952758721E-2</v>
       </c>
       <c r="AP106" s="3">
         <f>MIN(AI$96:AI106)</f>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="AQ106" s="3">
         <f>MIN(AJ$96:AJ106)</f>
-        <v>-9848.9006254988526</v>
+        <v>-9848.9006254988508</v>
       </c>
     </row>
     <row r="107" spans="2:43" x14ac:dyDescent="0.45">
@@ -11810,31 +11810,31 @@
       </c>
       <c r="E107" s="2">
         <f t="shared" si="8"/>
-        <v>616.08134187681208</v>
+        <v>771.1787426290166</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="9"/>
-        <v>11027.856019594936</v>
+        <v>11027.856019594938</v>
       </c>
       <c r="G107" s="3">
         <f t="shared" si="10"/>
-        <v>5320.9405294545559</v>
+        <v>5320.9405294545577</v>
       </c>
       <c r="H107" s="12">
         <f t="shared" si="11"/>
-        <v>16348.796549049492</v>
+        <v>16348.796549049495</v>
       </c>
       <c r="I107" s="12">
         <f t="shared" si="12"/>
-        <v>3528.9139262703793</v>
+        <v>3528.9139262703789</v>
       </c>
       <c r="J107" s="12">
         <f t="shared" si="13"/>
-        <v>2617.7373226513473</v>
+        <v>2617.7373226513487</v>
       </c>
       <c r="K107" s="12">
         <f t="shared" si="23"/>
-        <v>6146.6512489217266</v>
+        <v>6146.6512489217275</v>
       </c>
       <c r="L107" s="6">
         <f t="shared" si="24"/>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="M107" s="12">
         <f t="shared" si="14"/>
-        <v>2703.2032068032086</v>
+        <v>2703.203206803209</v>
       </c>
       <c r="N107" s="12">
         <f t="shared" si="15"/>
@@ -11850,15 +11850,15 @@
       </c>
       <c r="O107" s="2">
         <f t="shared" si="25"/>
-        <v>154.08551112562162</v>
+        <v>192.87626917123271</v>
       </c>
       <c r="P107" s="24">
         <f t="shared" si="16"/>
-        <v>0.15408551112562163</v>
+        <v>0.19287626917123271</v>
       </c>
       <c r="Q107" s="24">
         <f t="shared" si="17"/>
-        <v>0.15402033546920302</v>
+        <v>0.19279468565725416</v>
       </c>
       <c r="R107" s="56">
         <f t="shared" si="26"/>
@@ -11882,20 +11882,20 @@
       </c>
       <c r="W107" s="12">
         <f t="shared" si="19"/>
-        <v>5849.8544557249352</v>
+        <v>5849.8544557249388</v>
       </c>
       <c r="X107" s="6">
         <f t="shared" si="20"/>
-        <v>0.35781560056572126</v>
+        <v>0.35781560056572143</v>
       </c>
       <c r="Y107" s="12"/>
       <c r="Z107" s="12">
         <f t="shared" si="21"/>
-        <v>6146.6512489217257</v>
+        <v>6146.6512489217293</v>
       </c>
       <c r="AA107" s="12">
         <f t="shared" si="31"/>
-        <v>18118.584736740486</v>
+        <v>18118.584736740497</v>
       </c>
       <c r="AB107" t="str">
         <f t="shared" si="32"/>
@@ -11907,11 +11907,11 @@
       </c>
       <c r="AD107" s="3">
         <f>NPV($C$15,Z$97:Z107)+$Z$96</f>
-        <v>14357.113905473809</v>
+        <v>14357.113905473818</v>
       </c>
       <c r="AE107" s="1">
         <f>IFERROR(IRR(Z$96:Z107),"N/A")</f>
-        <v>0.2774805985795572</v>
+        <v>0.27748059857955742</v>
       </c>
       <c r="AF107" s="1">
         <f>IFERROR(MIRR(Z$96:Z107,$C$15,$C$16),"N/A")</f>
@@ -11927,11 +11927,11 @@
       </c>
       <c r="AI107" s="12">
         <f t="shared" si="22"/>
-        <v>5849.8544557249352</v>
+        <v>5849.8544557249388</v>
       </c>
       <c r="AJ107" s="12">
         <f t="shared" si="34"/>
-        <v>2346.0000022143868</v>
+        <v>2346.0000022143959</v>
       </c>
       <c r="AK107" t="str">
         <f t="shared" si="35"/>
@@ -11943,11 +11943,11 @@
       </c>
       <c r="AM107" s="3">
         <f>NPV($C$15,AI$97:AI107)+$AI$96</f>
-        <v>542.15962396415762</v>
+        <v>542.15962396416649</v>
       </c>
       <c r="AN107" s="63">
         <f>IFERROR(IRR(AI$96:AI107),"N/A")</f>
-        <v>3.0251519866570709E-2</v>
+        <v>3.0251519866570931E-2</v>
       </c>
       <c r="AO107" s="63">
         <f>IFERROR(MIRR(AI$96:AI107,$C$15,$C$16),"N/A")</f>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="AQ107" s="3">
         <f>MIN(AJ$96:AJ107)</f>
-        <v>-9848.9006254988526</v>
+        <v>-9848.9006254988508</v>
       </c>
     </row>
     <row r="108" spans="2:43" s="45" customFormat="1" x14ac:dyDescent="0.45">
@@ -11976,27 +11976,27 @@
       </c>
       <c r="E108" s="47">
         <f t="shared" si="8"/>
-        <v>821.55767334866891</v>
+        <v>1028.3833813245576</v>
       </c>
       <c r="F108" s="46">
         <f t="shared" si="9"/>
-        <v>14705.882352941173</v>
+        <v>14705.882352941175</v>
       </c>
       <c r="G108" s="46">
         <f t="shared" si="10"/>
-        <v>7095.5882352941153</v>
+        <v>7095.5882352941171</v>
       </c>
       <c r="H108" s="48">
         <f t="shared" si="11"/>
-        <v>21801.470588235286</v>
+        <v>21801.470588235294</v>
       </c>
       <c r="I108" s="48">
         <f t="shared" si="12"/>
-        <v>4705.8823529411757</v>
+        <v>4705.8823529411738</v>
       </c>
       <c r="J108" s="48">
         <f t="shared" si="13"/>
-        <v>3490.8088235294103</v>
+        <v>3490.8088235294117</v>
       </c>
       <c r="K108" s="48">
         <f t="shared" si="23"/>
@@ -12004,11 +12004,11 @@
       </c>
       <c r="L108" s="49">
         <f t="shared" si="24"/>
-        <v>0.37596964586846543</v>
+        <v>0.37596964586846532</v>
       </c>
       <c r="M108" s="48">
         <f t="shared" si="14"/>
-        <v>3604.7794117647049</v>
+        <v>3604.7794117647054</v>
       </c>
       <c r="N108" s="48">
         <f t="shared" si="15"/>
@@ -12016,15 +12016,15 @@
       </c>
       <c r="O108" s="47">
         <f t="shared" si="25"/>
-        <v>205.47633147185684</v>
+        <v>257.20463869554101</v>
       </c>
       <c r="P108" s="50">
         <f t="shared" si="16"/>
-        <v>0.20547633147185684</v>
+        <v>0.257204638695541</v>
       </c>
       <c r="Q108" s="50">
         <f t="shared" si="17"/>
-        <v>0.20538941833716723</v>
+        <v>0.25709584533113938</v>
       </c>
       <c r="R108" s="57">
         <f t="shared" si="26"/>
@@ -12048,20 +12048,20 @@
       </c>
       <c r="W108" s="48">
         <f t="shared" si="19"/>
-        <v>8801.4705882352882</v>
+        <v>8801.4705882352955</v>
       </c>
       <c r="X108" s="49">
         <f t="shared" si="20"/>
-        <v>0.40370994940978067</v>
+        <v>0.40370994940978083</v>
       </c>
       <c r="Y108" s="48"/>
       <c r="Z108" s="48">
         <f t="shared" si="21"/>
-        <v>8196.6911764705837</v>
+        <v>8196.691176470591</v>
       </c>
       <c r="AA108" s="48">
         <f t="shared" si="31"/>
-        <v>26315.27591321107</v>
+        <v>26315.275913211088</v>
       </c>
       <c r="AB108" s="45" t="str">
         <f t="shared" si="32"/>
@@ -12073,11 +12073,11 @@
       </c>
       <c r="AD108" s="46">
         <f>NPV($C$15,Z$97:Z108)+$Z$96</f>
-        <v>20662.260964297329</v>
+        <v>20662.260964297344</v>
       </c>
       <c r="AE108" s="51">
         <f>IFERROR(IRR(Z$96:Z108),"N/A")</f>
-        <v>0.30327075576430573</v>
+        <v>0.30327075576430595</v>
       </c>
       <c r="AF108" s="51">
         <f>IFERROR(MIRR(Z$96:Z108,$C$15,$C$16),"N/A")</f>
@@ -12093,11 +12093,11 @@
       </c>
       <c r="AI108" s="48">
         <f t="shared" si="22"/>
-        <v>8801.4705882352882</v>
+        <v>8801.4705882352955</v>
       </c>
       <c r="AJ108" s="48">
         <f t="shared" si="34"/>
-        <v>11147.470590449675</v>
+        <v>11147.470590449691</v>
       </c>
       <c r="AK108" s="48" t="str">
         <f t="shared" si="35"/>
@@ -12109,11 +12109,11 @@
       </c>
       <c r="AM108" s="46">
         <f>NPV($C$15,AI$97:AI108)+$AI$96</f>
-        <v>7312.5216149143744</v>
+        <v>7312.5216149143889</v>
       </c>
       <c r="AN108" s="64">
         <f>IFERROR(IRR(AI$96:AI108),"N/A")</f>
-        <v>9.9371216546409347E-2</v>
+        <v>9.9371216546409569E-2</v>
       </c>
       <c r="AO108" s="64">
         <f>IFERROR(MIRR(AI$96:AI108,$C$15,$C$16),"N/A")</f>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="AQ108" s="46">
         <f>MIN(AJ$96:AJ108)</f>
-        <v>-9848.9006254988526</v>
+        <v>-9848.9006254988508</v>
       </c>
     </row>
     <row r="109" spans="2:43" x14ac:dyDescent="0.45">
@@ -12820,7 +12820,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>price_list!$F$3:$F$8</xm:f>
